--- a/MyProject/Luban/Config/Datas/CardInfo.xlsx
+++ b/MyProject/Luban/Config/Datas/CardInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\MyProject\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F91008-F293-4DC9-85C4-81A169760EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58A1566-D7DC-4C23-93C2-44814780DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zhouzhou" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,22 @@
   </si>
   <si>
     <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list#sep=,string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,16 +792,16 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="60.125" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.1328125" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
@@ -813,9 +829,11 @@
       <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -843,11 +861,13 @@
       <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
@@ -875,11 +895,13 @@
       <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A4" s="8"/>
       <c r="B4" s="8">
         <v>100</v>
@@ -909,7 +931,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A5" s="8"/>
       <c r="B5" s="8">
         <v>101</v>
@@ -939,7 +961,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
       <c r="B6" s="8">
         <v>102</v>
@@ -969,7 +991,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>103</v>
@@ -993,11 +1015,13 @@
         <v>27</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>104</v>
@@ -1021,11 +1045,13 @@
         <v>27</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>105</v>
@@ -1049,11 +1075,13 @@
         <v>27</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>106</v>
@@ -1077,11 +1105,13 @@
         <v>27</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>107</v>
@@ -1105,11 +1135,13 @@
         <v>27</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="8">
         <v>108</v>
@@ -1133,11 +1165,13 @@
         <v>27</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A13" s="8"/>
       <c r="B13" s="8">
         <v>109</v>
@@ -1165,7 +1199,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A14" s="8"/>
       <c r="B14" s="8">
         <v>110</v>
@@ -1193,7 +1227,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A15" s="8"/>
       <c r="B15" s="8">
         <v>111</v>
@@ -1221,7 +1255,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A16" s="8"/>
       <c r="B16" s="8">
         <v>112</v>
@@ -1249,7 +1283,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A17" s="8"/>
       <c r="B17" s="8">
         <v>113</v>
@@ -1277,7 +1311,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A18" s="8"/>
       <c r="B18" s="8">
         <v>114</v>
@@ -1305,7 +1339,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="8">
         <v>115</v>
@@ -1333,7 +1367,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A20" s="8"/>
       <c r="B20" s="8">
         <v>116</v>
@@ -1361,7 +1395,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1375,7 +1409,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1388,44 +1422,44 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.4">
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1444,15 +1478,15 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="60.125" customWidth="1"/>
+    <col min="4" max="4" width="60.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
@@ -1480,10 +1514,12 @@
       <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.5">
       <c r="A2" s="8" t="s">
         <v>69</v>
       </c>
@@ -1511,10 +1547,12 @@
       <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>67</v>
       </c>
@@ -1542,10 +1580,12 @@
       <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A4" s="8"/>
       <c r="B4" s="8">
         <v>200</v>
@@ -1571,10 +1611,10 @@
       <c r="I4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A5" s="8"/>
       <c r="B5" s="8">
         <v>201</v>
@@ -1600,10 +1640,10 @@
       <c r="I5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="8"/>
       <c r="B6" s="8">
         <v>202</v>
@@ -1629,10 +1669,10 @@
       <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>203</v>
@@ -1656,10 +1696,12 @@
         <v>28</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>204</v>
@@ -1683,10 +1725,12 @@
         <v>28</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="28.15" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>205</v>
@@ -1710,10 +1754,12 @@
         <v>28</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>206</v>
@@ -1737,10 +1783,12 @@
         <v>28</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>207</v>
@@ -1764,10 +1812,12 @@
         <v>28</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="8">
         <v>208</v>
@@ -1791,10 +1841,12 @@
         <v>28</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="8"/>
       <c r="B13" s="8">
         <v>209</v>
@@ -1821,31 +1873,31 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="6:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" ht="15" x14ac:dyDescent="0.5">
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="6:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" ht="15" x14ac:dyDescent="0.5">
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="6:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" ht="15" x14ac:dyDescent="0.5">
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="6:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" ht="15" x14ac:dyDescent="0.5">
       <c r="F20" s="7"/>
     </row>
   </sheetData>
